--- a/ResultsTransformation/Map/Foret/foret_de_jade.xlsx
+++ b/ResultsTransformation/Map/Foret/foret_de_jade.xlsx
@@ -2026,6 +2026,31 @@
           <t>.</t>
         </is>
       </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
       <c r="AZ8" t="inlineStr">
         <is>
           <t>.</t>
@@ -2227,17 +2252,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2407,6 +2432,11 @@
           <t>.</t>
         </is>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>.</t>
@@ -2723,27 +2753,27 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2763,27 +2793,27 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2803,27 +2833,27 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2935,27 +2965,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2975,27 +3005,27 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3015,27 +3045,27 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -3055,27 +3085,27 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3187,27 +3217,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3227,27 +3257,27 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3267,27 +3297,27 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3307,27 +3337,27 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3439,27 +3469,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3479,27 +3509,27 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3519,27 +3549,27 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3559,57 +3589,57 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
@@ -3646,27 +3676,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3686,27 +3716,27 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3726,27 +3756,27 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3766,57 +3796,57 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
@@ -3853,27 +3883,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3893,27 +3923,27 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3933,27 +3963,27 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3973,57 +4003,67 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
@@ -4060,27 +4100,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4100,27 +4140,27 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4140,27 +4180,27 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -4180,57 +4220,57 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -4297,27 +4337,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4337,27 +4377,27 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4377,27 +4417,27 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -4417,52 +4457,57 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -4529,27 +4574,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -4569,27 +4614,27 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4609,27 +4654,27 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -4649,32 +4694,32 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -4771,27 +4816,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4811,27 +4856,27 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4851,27 +4896,27 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -4891,17 +4936,17 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -4998,27 +5043,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5038,27 +5083,27 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -5185,27 +5230,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5225,27 +5270,27 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -5259,6 +5304,11 @@
         </is>
       </c>
       <c r="S24" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>.</t>
         </is>
@@ -5357,27 +5407,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5397,27 +5447,27 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -5509,27 +5559,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -5549,27 +5599,27 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -5593,6 +5643,26 @@
         </is>
       </c>
       <c r="U26" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
         <is>
           <t>.</t>
         </is>
@@ -5661,27 +5731,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -5701,37 +5771,37 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -5878,62 +5948,62 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -6322,22 +6392,22 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ30" t="inlineStr">
@@ -6449,27 +6519,27 @@
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
@@ -6596,27 +6666,27 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
@@ -6743,27 +6813,27 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
@@ -6813,6 +6883,31 @@
           <t>.</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr">
         <is>
           <t>.</t>
@@ -6890,27 +6985,27 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
@@ -7112,27 +7207,27 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
@@ -7257,6 +7352,16 @@
           <t>.</t>
         </is>
       </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
       <c r="Y36" t="inlineStr">
         <is>
           <t>.</t>
@@ -7334,27 +7439,27 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
@@ -7586,27 +7691,27 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
@@ -7838,27 +7943,27 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
@@ -8090,27 +8195,27 @@
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
@@ -8162,77 +8267,77 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -8342,27 +8447,27 @@
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS40" t="inlineStr">
@@ -8414,77 +8519,77 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -8594,27 +8699,27 @@
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS41" t="inlineStr">
@@ -8666,77 +8771,77 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -8846,27 +8951,27 @@
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS42" t="inlineStr">
@@ -8918,77 +9023,77 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -9098,27 +9203,27 @@
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ43" t="inlineStr">
@@ -9155,152 +9260,152 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
@@ -9335,22 +9440,22 @@
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ44" t="inlineStr">
@@ -9432,82 +9537,82 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -9517,12 +9622,12 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
@@ -9557,17 +9662,17 @@
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ45" t="inlineStr">
@@ -9649,92 +9754,92 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
@@ -9769,17 +9874,27 @@
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="AU46" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
       <c r="AZ46" t="inlineStr">
@@ -9861,17 +9976,17 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -9921,22 +10036,22 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
@@ -9971,17 +10086,17 @@
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr">
@@ -10093,17 +10208,17 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -10153,22 +10268,22 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
@@ -10203,17 +10318,17 @@
       </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr">
@@ -10325,17 +10440,17 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -10385,22 +10500,22 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
@@ -10435,17 +10550,17 @@
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr">
@@ -10557,17 +10672,17 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -10617,22 +10732,22 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
@@ -10667,17 +10782,17 @@
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr">
@@ -10789,17 +10904,17 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -10849,22 +10964,22 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH51" t="inlineStr">
@@ -10899,17 +11014,17 @@
       </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr">
@@ -11021,17 +11136,17 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -11081,22 +11196,22 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
@@ -11131,17 +11246,17 @@
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">
@@ -11253,17 +11368,17 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -11313,22 +11428,22 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH53" t="inlineStr">
@@ -11363,17 +11478,17 @@
       </c>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr">
@@ -11485,17 +11600,17 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -11545,22 +11660,22 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
@@ -11595,17 +11710,17 @@
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr">
@@ -11717,17 +11832,17 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -11777,12 +11892,12 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD55" t="inlineStr">
@@ -11792,12 +11907,12 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
@@ -11832,17 +11947,17 @@
       </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr">
@@ -11909,117 +12024,117 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -12039,87 +12154,87 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AM56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ56" t="inlineStr">
@@ -12156,117 +12271,117 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -12286,87 +12401,87 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ57" t="inlineStr">
@@ -12403,107 +12518,107 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AD58" t="inlineStr">
@@ -12513,82 +12628,82 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AM58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ58" t="inlineStr">
@@ -12625,167 +12740,167 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AL59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AM59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ59" t="inlineStr">
@@ -12822,42 +12937,42 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AN60" t="inlineStr">
@@ -12867,37 +12982,37 @@
       </c>
       <c r="AS60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ60" t="inlineStr">
@@ -12934,42 +13049,42 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AF61" t="inlineStr">
@@ -12979,42 +13094,42 @@
       </c>
       <c r="AR61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ61" t="inlineStr">
@@ -13051,82 +13166,82 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AS62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="AZ62" t="inlineStr">
@@ -13530,17 +13645,17 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
